--- a/11_iOSApp開発/001_ニートいじり/01_設計書/キャラクター人気投票集計結果.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/キャラクター人気投票集計結果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -314,13 +314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャージのチャックを開けてほしい。。。</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>案4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,6 +434,36 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日置　広大</t>
+    <rPh sb="0" eb="2">
+      <t>ヒオキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャージのチャックを開けてほしい。
+案4はもう少し悲しげな顔がいい。</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -523,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,6 +573,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +749,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -869,13 +895,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="kouji ishikawa" refreshedDate="42411.741973611111" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="37">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="kouji ishikawa" refreshedDate="42411.744546527778" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="38">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D38" sheet="元データ"/>
+    <worksheetSource ref="A1:D39" sheet="元データ"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="No." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="37"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="38"/>
     </cacheField>
     <cacheField name="名前" numFmtId="0">
       <sharedItems/>
@@ -906,7 +932,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="38">
   <r>
     <n v="1"/>
     <s v="あや"/>
@@ -1091,7 +1117,7 @@
     <n v="31"/>
     <s v="高橋さんの奥さん"/>
     <x v="1"/>
-    <m/>
+    <s v="どれも気持ち悪い"/>
   </r>
   <r>
     <n v="32"/>
@@ -1127,6 +1153,12 @@
     <n v="37"/>
     <s v="高橋さんの知り合い6"/>
     <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="日置　広大"/>
+    <x v="4"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -1504,9 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1538,7 +1568,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1602,7 +1632,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1919,7 +1949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="27">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1927,10 +1957,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1953,7 +1983,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7"/>
     </row>
@@ -1977,7 +2007,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -1989,7 +2019,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2010,10 +2040,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -2022,13 +2052,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2036,7 +2066,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
@@ -2048,7 +2078,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>32</v>
@@ -2060,7 +2090,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>32</v>
@@ -2072,7 +2102,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>32</v>
@@ -2084,7 +2114,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>32</v>
@@ -2096,12 +2126,24 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/キャラクター人気投票集計結果.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/キャラクター人気投票集計結果.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="集計結果" sheetId="7" r:id="rId1"/>
     <sheet name="元データ" sheetId="1" r:id="rId2"/>
     <sheet name="キャラクター" sheetId="8" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">元データ!$A$1:$D$40</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="2" r:id="rId4"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -424,16 +427,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どれも気持ち悪い</t>
-    <rPh sb="3" eb="5">
-      <t>キモ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ワル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -464,6 +457,29 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中　彰子</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれも気持ち悪いけどしいて言うなら</t>
+    <rPh sb="3" eb="5">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -503,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +529,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,14 +596,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -767,7 +801,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -895,9 +929,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="kouji ishikawa" refreshedDate="42411.744546527778" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="38">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="kouji ishikawa" refreshedDate="42411.766613888889" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="39">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D39" sheet="元データ"/>
+    <worksheetSource ref="A1:D40" sheet="元データ"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="No." numFmtId="0">
@@ -932,7 +966,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="38">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="39">
   <r>
     <n v="1"/>
     <s v="あや"/>
@@ -1069,7 +1103,7 @@
     <n v="23"/>
     <s v="石川晃次"/>
     <x v="1"/>
-    <s v="ジャージのチャックを開けてほしい。。。"/>
+    <s v="ジャージのチャックを開けてほしい。_x000a_案4はもう少し悲しげな顔がいい。"/>
   </r>
   <r>
     <n v="24"/>
@@ -1159,6 +1193,12 @@
     <n v="38"/>
     <s v="日置　広大"/>
     <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="田中　彰子"/>
+    <x v="3"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -1536,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1616,7 +1656,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1632,7 +1672,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1644,14 +1684,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="19.625" bestFit="1" customWidth="1"/>
@@ -1671,7 +1712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1683,7 +1724,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1695,7 +1736,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1717,11 +1758,11 @@
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1733,7 +1774,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1745,7 +1786,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1757,7 +1798,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1769,7 +1810,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1781,7 +1822,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1793,7 +1834,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1805,7 +1846,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1817,7 +1858,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1831,7 +1872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1845,7 +1886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1859,7 +1900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1871,7 +1912,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1883,7 +1924,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1895,7 +1936,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1907,7 +1948,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1921,7 +1962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1935,7 +1976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1960,10 +2001,10 @@
         <v>53</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1975,7 +2016,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1987,7 +2028,7 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1999,7 +2040,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2011,7 +2052,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2023,7 +2064,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2035,7 +2076,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2047,7 +2088,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2058,10 +2099,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2073,7 +2114,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2085,7 +2126,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2097,7 +2138,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2109,7 +2150,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2121,7 +2162,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2133,19 +2174,36 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="1"/>
     </row>
+    <row r="40" spans="1:4" hidden="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D40">
+    <filterColumn colId="3">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2156,9 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD37" sqref="AD37"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
